--- a/Functional test cases.xlsx
+++ b/Functional test cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISTQB material\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062BC7BF-E5D6-41AF-835A-15EB4A297899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50EE990-A1B7-4F24-8A6F-C86D8A457360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="authentication" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="348">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -89,19 +89,10 @@
     <t>AU009</t>
   </si>
   <si>
-    <t>User authentication &amp; account management</t>
-  </si>
-  <si>
     <t>Username field must not be blank</t>
   </si>
   <si>
     <t>Have access to the website</t>
-  </si>
-  <si>
-    <t>1- Go to " Basic Auth" Page
-2- Leave username blank
-3- Enter password
-4- press Login</t>
   </si>
   <si>
     <t>username: 
@@ -112,18 +103,6 @@
   </si>
   <si>
     <t>Wrong user name</t>
-  </si>
-  <si>
-    <t>1- Go to " Basic Auth" Page
-2- Enter wrong username
-3- Enter any password
-4- press Login</t>
-  </si>
-  <si>
-    <t>1- Go to " Basic Auth" Page
-2- Enter any username
-3- Leave password blank
-4- press Login</t>
   </si>
   <si>
     <t xml:space="preserve">username: hamada
@@ -155,25 +134,11 @@
 4- press Login</t>
   </si>
   <si>
-    <t>username: admin
-Password : 1235</t>
-  </si>
-  <si>
     <t xml:space="preserve"> System displays an error indicating
 that password is wrong</t>
   </si>
   <si>
     <t>Valid account and password</t>
-  </si>
-  <si>
-    <t>1- Go to " Basic Auth" Page
-2- Enter Valid username
-3- Enter valid password
-4- press Login</t>
-  </si>
-  <si>
-    <t>username: admin
-Password : admin</t>
   </si>
   <si>
     <t xml:space="preserve"> System displays a message indicating
@@ -1007,12 +972,6 @@
     <t>Username and password field must not be blank</t>
   </si>
   <si>
-    <t>1- Go to " Basic Auth" Page
-2- Leave username blank
-3- Leave password blank
-4- press Login</t>
-  </si>
-  <si>
     <t xml:space="preserve">username: 
 Password : </t>
   </si>
@@ -1021,14 +980,7 @@
 that no data has been entered</t>
   </si>
   <si>
-    <t>nothing happens</t>
-  </si>
-  <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Systems accepts and a message appears
-"Congratulations! You must have the proper credentials."</t>
   </si>
   <si>
     <t>Pass</t>
@@ -1306,6 +1258,58 @@
   </si>
   <si>
     <t>System displays a message entered "shift"</t>
+  </si>
+  <si>
+    <t>Form authentication &amp; account management</t>
+  </si>
+  <si>
+    <t>1- Go to " Form Authentication" Page
+2- Leave username blank
+3- Leave password blank
+4- press Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> System displays an error Your username is invalid!</t>
+  </si>
+  <si>
+    <t>1- Go to " Form Authintication" Page
+2- Leave username blank
+3- Enter password
+4- press Login</t>
+  </si>
+  <si>
+    <t>1- Go to " Form Authintication" Page
+2- Enter any username
+3- Leave password blank
+4- press Login</t>
+  </si>
+  <si>
+    <t>1- Go to " Form Authintication" Page
+2- Enter wrong username
+3- Enter any password
+4- press Login</t>
+  </si>
+  <si>
+    <t>1- Go to "  Form Authintication" Page
+2- Enter Valid username
+3- Enter valid password
+4- press Login</t>
+  </si>
+  <si>
+    <t>username: tomsmith 
+Password : 1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> System displays an error
+that password is wrong</t>
+  </si>
+  <si>
+    <t>username: tomsmith
+Password : SuperSecretPassword!</t>
+  </si>
+  <si>
+    <t>Systems accepts and a message appears
+" You logged into a secure area!."</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1367,6 +1371,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1380,7 +1390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1419,6 +1429,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1709,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H15" activeCellId="19" sqref="A11 E11 G11 H11 A12 E12 G12 H12 A13 E13 G13 H13 A14 E14 G14 H14 A15 E15 G15 H15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1760,384 +1779,384 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>18</v>
+      <c r="B2" s="17" t="s">
+        <v>337</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>269</v>
+        <v>339</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>269</v>
+        <v>339</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>344</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>269</v>
+        <v>345</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>343</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>346</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>40</v>
+      <c r="B8" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>54</v>
+      <c r="B10" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="B12" s="17"/>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="B13" s="17"/>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="B14" s="17"/>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="I15" s="10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2204,112 +2223,112 @@
     </row>
     <row r="2" spans="1:9" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="B3" s="17"/>
       <c r="C3" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2325,8 +2344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDB89EF-DA1D-4464-B6C0-EE0A1836AEEC}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2343,323 +2362,323 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>100</v>
+        <v>111</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="14"/>
+        <v>110</v>
+      </c>
+      <c r="B3" s="17"/>
       <c r="C3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="14"/>
+        <v>112</v>
+      </c>
+      <c r="B4" s="17"/>
       <c r="C4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="14"/>
+        <v>115</v>
+      </c>
+      <c r="B6" s="17"/>
       <c r="C6" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="14"/>
+        <v>116</v>
+      </c>
+      <c r="B7" s="17"/>
       <c r="C7" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2726,124 +2745,124 @@
     </row>
     <row r="2" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="14"/>
+        <v>124</v>
+      </c>
+      <c r="B3" s="17"/>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="14"/>
+        <v>125</v>
+      </c>
+      <c r="B4" s="17"/>
       <c r="C4" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="14"/>
+        <v>126</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="14"/>
+        <v>127</v>
+      </c>
+      <c r="B6" s="17"/>
       <c r="C6" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2908,111 +2927,111 @@
     </row>
     <row r="2" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="14"/>
+        <v>150</v>
+      </c>
+      <c r="B4" s="17"/>
       <c r="C4" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="14"/>
+        <v>151</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3077,102 +3096,102 @@
     </row>
     <row r="2" spans="1:9" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>195</v>
+        <v>187</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="14"/>
+        <v>195</v>
+      </c>
+      <c r="B3" s="17"/>
       <c r="C3" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>206</v>
+        <v>196</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="14"/>
+        <v>197</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3189,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF39C81-971E-417D-A170-565DFC35E282}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -3207,185 +3226,185 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>211</v>
+        <v>205</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="14"/>
+        <v>222</v>
+      </c>
+      <c r="B3" s="17"/>
       <c r="C3" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" s="14"/>
+        <v>223</v>
+      </c>
+      <c r="B4" s="17"/>
       <c r="C4" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="14"/>
+        <v>224</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="14"/>
+        <v>225</v>
+      </c>
+      <c r="B6" s="17"/>
       <c r="C6" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" s="14"/>
+        <v>226</v>
+      </c>
+      <c r="B7" s="17"/>
       <c r="C7" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3450,137 +3469,137 @@
     </row>
     <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>234</v>
+        <v>246</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>227</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3" s="15"/>
+        <v>247</v>
+      </c>
+      <c r="B3" s="18"/>
       <c r="C3" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="15"/>
+        <v>248</v>
+      </c>
+      <c r="B4" s="18"/>
       <c r="C4" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B5" s="15"/>
+        <v>249</v>
+      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="15"/>
+        <v>250</v>
+      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3596,8 +3615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C791E4-E25F-4CF8-BED6-104063A25692}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" activeCellId="15" sqref="H3 H5 H6 H9 G3 G5 G6 G9 E3 E5 E6 E9 A3 A5 A6 A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3615,267 +3634,267 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>302</v>
+        <v>291</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>292</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B3" s="14"/>
+        <v>296</v>
+      </c>
+      <c r="B3" s="17"/>
       <c r="C3" s="4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>317</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B5" s="14"/>
+        <v>298</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="4" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>324</v>
+        <v>299</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>314</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B7" s="14"/>
+        <v>300</v>
+      </c>
+      <c r="B7" s="17"/>
       <c r="C7" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>335</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B8" s="14"/>
+        <v>301</v>
+      </c>
+      <c r="B8" s="17"/>
       <c r="C8" s="4" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="I8" s="9" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B9" s="14"/>
+        <v>320</v>
+      </c>
+      <c r="B9" s="17"/>
       <c r="C9" s="4" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
